--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\Games BOS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1B92F-C67A-455A-99EA-453E6F6B0DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE9008-D666-4F8C-BF91-5899709F3B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tenorite"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,29 +154,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -212,45 +203,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A3:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A3:C9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:C9" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
     <sortCondition descending="1" ref="B3:B9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="Centralizadora" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="Pontuação do Dia" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{714DFCA3-2E5B-4003-B29E-8EFCF95A8A20}" name="total de BOS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="Centralizadora" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="Pontuação do Dia"/>
+    <tableColumn id="3" xr3:uid="{714DFCA3-2E5B-4003-B29E-8EFCF95A8A20}" name="total de BOS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}" name="Tabela35" displayName="Tabela35" ref="E3:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}" name="Tabela35" displayName="Tabela35" ref="E3:G9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="E3:G9" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:G9">
     <sortCondition descending="1" ref="F3:F9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BFDBA261-45AD-4A90-A76F-C6CE664F8F0B}" name="Centralizadora" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DC065B96-A132-4312-A9F3-C4E302C0C804}" name="Pontuação do Dia" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7C0136AF-4533-4F85-A728-AB6815E1284E}" name="Total de BOS" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BFDBA261-45AD-4A90-A76F-C6CE664F8F0B}" name="Centralizadora" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC065B96-A132-4312-A9F3-C4E302C0C804}" name="Pontuação do Dia"/>
+    <tableColumn id="3" xr3:uid="{7C0136AF-4533-4F85-A728-AB6815E1284E}" name="Total de BOS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}" name="Tabela36" displayName="Tabela36" ref="I3:K9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}" name="Tabela36" displayName="Tabela36" ref="I3:K9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="I3:K9" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:K9">
     <sortCondition descending="1" ref="J3:J9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF56209D-016F-4FD6-A0CC-76D223A02236}" name="Centralizadora" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C1F1EBEB-9D37-4EB5-91BE-9244828AB173}" name="Pontuação do Dia" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F57EEA35-D947-426A-9387-1929630E381B}" name="Total de BOS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BF56209D-016F-4FD6-A0CC-76D223A02236}" name="Centralizadora" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C1F1EBEB-9D37-4EB5-91BE-9244828AB173}" name="Pontuação do Dia"/>
+    <tableColumn id="3" xr3:uid="{F57EEA35-D947-426A-9387-1929630E381B}" name="Total de BOS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,7 +567,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,174 +617,174 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>60</v>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1">
-        <v>10</v>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>20</v>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
-        <v>40</v>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30</v>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1">
-        <v>30</v>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1">
-        <v>40</v>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>82</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1">
-        <v>40</v>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <v>50</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
-        <v>600</v>
-      </c>
-      <c r="G9" s="1">
-        <v>60</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1">
-        <v>400</v>
-      </c>
-      <c r="K9" s="1">
-        <v>60</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\Games BOS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Games BOS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE9008-D666-4F8C-BF91-5899709F3B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721DAD3-2205-41CD-8BEE-71D62D00FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
+    <workbookView xWindow="1890" yWindow="855" windowWidth="17565" windowHeight="8010" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Centralizadora</t>
   </si>
@@ -75,9 +75,6 @@
     <t>BAU</t>
   </si>
   <si>
-    <t>SÃO</t>
-  </si>
-  <si>
     <t>SOR</t>
   </si>
   <si>
@@ -96,17 +93,17 @@
     <t>BHZ</t>
   </si>
   <si>
-    <t>total de BOS</t>
-  </si>
-  <si>
-    <t>Total de BOS</t>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>SAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,23 +112,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tenorite"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,42 +165,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,45 +186,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A3:C9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}" name="Tabela3" displayName="Tabela3" ref="A3:C9" totalsRowShown="0">
   <autoFilter ref="A3:C9" xr:uid="{E8C13C1E-5F53-4111-A4DE-83490ADA3B70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
     <sortCondition descending="1" ref="B3:B9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="Centralizadora" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C2F614AC-1218-44F3-A797-18C3097017C6}" name="Centralizadora"/>
     <tableColumn id="2" xr3:uid="{01370DD3-1218-4F36-931A-4F4478CC2EEA}" name="Pontuação do Dia"/>
-    <tableColumn id="3" xr3:uid="{714DFCA3-2E5B-4003-B29E-8EFCF95A8A20}" name="total de BOS"/>
+    <tableColumn id="3" xr3:uid="{714DFCA3-2E5B-4003-B29E-8EFCF95A8A20}" name="Total Geral"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}" name="Tabela35" displayName="Tabela35" ref="E3:G9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}" name="Tabela35" displayName="Tabela35" ref="E3:G9" totalsRowShown="0">
   <autoFilter ref="E3:G9" xr:uid="{0129EB66-800B-4650-8A2F-5A6D78E32283}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:G9">
     <sortCondition descending="1" ref="F3:F9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BFDBA261-45AD-4A90-A76F-C6CE664F8F0B}" name="Centralizadora" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BFDBA261-45AD-4A90-A76F-C6CE664F8F0B}" name="Centralizadora"/>
     <tableColumn id="2" xr3:uid="{DC065B96-A132-4312-A9F3-C4E302C0C804}" name="Pontuação do Dia"/>
-    <tableColumn id="3" xr3:uid="{7C0136AF-4533-4F85-A728-AB6815E1284E}" name="Total de BOS"/>
+    <tableColumn id="3" xr3:uid="{7C0136AF-4533-4F85-A728-AB6815E1284E}" name="Total Geral"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}" name="Tabela36" displayName="Tabela36" ref="I3:K9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}" name="Tabela36" displayName="Tabela36" ref="I3:K9" totalsRowShown="0">
   <autoFilter ref="I3:K9" xr:uid="{2CD2B8A5-AE9F-4055-971C-D6CA779947BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:K9">
     <sortCondition descending="1" ref="J3:J9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF56209D-016F-4FD6-A0CC-76D223A02236}" name="Centralizadora" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BF56209D-016F-4FD6-A0CC-76D223A02236}" name="Centralizadora"/>
     <tableColumn id="2" xr3:uid="{C1F1EBEB-9D37-4EB5-91BE-9244828AB173}" name="Pontuação do Dia"/>
-    <tableColumn id="3" xr3:uid="{F57EEA35-D947-426A-9387-1929630E381B}" name="Total de BOS"/>
+    <tableColumn id="3" xr3:uid="{F57EEA35-D947-426A-9387-1929630E381B}" name="Total Geral"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,7 +550,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,209 +568,210 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
         <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>39</v>
+      <c r="J4" s="2">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>114</v>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>44</v>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>82</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>65</v>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>29</v>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>145</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Games BOS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721DAD3-2205-41CD-8BEE-71D62D00FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2393DE-40E2-42AF-85B3-08235C51332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="855" windowWidth="17565" windowHeight="8010" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,31 +598,31 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -642,132 +642,132 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" s="2">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="K7" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2393DE-40E2-42AF-85B3-08235C51332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1961929-EA58-4052-B792-BFD22B1A7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="K4" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -651,7 +651,7 @@
         <v>66</v>
       </c>
       <c r="K5" s="2">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>7</v>
@@ -680,7 +680,7 @@
         <v>58</v>
       </c>
       <c r="K6" s="2">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
@@ -709,7 +709,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
@@ -738,7 +738,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1961929-EA58-4052-B792-BFD22B1A7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB027653-A858-4F05-92FA-ED9BA2606E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I3" sqref="I3:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,25 +604,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K4" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -639,19 +639,19 @@
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K5" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,80 +665,80 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K7" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,19 +755,19 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB027653-A858-4F05-92FA-ED9BA2606E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA91E9-1DEB-42C2-B562-B0E7A22A5C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -550,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -613,7 +616,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
@@ -622,7 +625,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -642,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -651,7 +654,7 @@
         <v>95</v>
       </c>
       <c r="K5" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -671,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
@@ -680,7 +683,7 @@
         <v>87</v>
       </c>
       <c r="K6" s="2">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
@@ -709,7 +712,7 @@
         <v>84</v>
       </c>
       <c r="K7" s="2">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
@@ -738,7 +741,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -758,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -767,7 +770,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCA91E9-1DEB-42C2-B562-B0E7A22A5C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F95418D-8D37-40B0-8379-8C3E8633D71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>7</v>
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>21</v>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>119</v>
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>43</v>
@@ -651,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>205</v>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>73</v>
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>65</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>48</v>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>61</v>
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>42</v>
@@ -767,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>45</v>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F95418D-8D37-40B0-8379-8C3E8633D71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CBDA0A-7E22-403F-B6ED-D52F6B3BA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,115 +604,115 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,22 +755,22 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CBDA0A-7E22-403F-B6ED-D52F6B3BA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64FF8ED-35F3-4545-ACE9-B5117107FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="2">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -683,7 +683,7 @@
         <v>43</v>
       </c>
       <c r="K6" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="2">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -770,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64FF8ED-35F3-4545-ACE9-B5117107FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BE66D-E57E-4EF6-86D5-DC6B84533618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,60 +601,60 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="K4" s="2">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
         <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,57 +662,57 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
       <c r="G7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
         <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,22 +726,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,22 +755,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BE66D-E57E-4EF6-86D5-DC6B84533618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DE6C0-634B-49E4-A5E2-775B639441B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>119</v>
       </c>
       <c r="K4" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>69</v>
       </c>
       <c r="K5" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>66</v>
       </c>
       <c r="K6" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="K7" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DE6C0-634B-49E4-A5E2-775B639441B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C2996-F00D-4A5D-B04A-2E602B4A1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,60 +601,60 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="K4" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -668,22 +668,22 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K6" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -697,22 +697,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,22 +726,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -761,16 +761,16 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C2996-F00D-4A5D-B04A-2E602B4A1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DCB0-AF93-4ED2-84ED-6824DF9DDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>162</v>
       </c>
       <c r="K4" s="2">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>149</v>
       </c>
       <c r="K5" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -674,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -683,7 +683,7 @@
         <v>78</v>
       </c>
       <c r="K6" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -741,7 +741,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DCB0-AF93-4ED2-84ED-6824DF9DDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0231B0-D1DB-4427-B21B-A975C16ECCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,19 +613,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="K4" s="2">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,28 +633,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="K5" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,28 +662,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2">
         <v>24</v>
-      </c>
-      <c r="G6" s="2">
-        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K6" s="2">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -691,16 +691,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>32</v>
@@ -709,10 +709,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,28 +720,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,25 +752,25 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0231B0-D1DB-4427-B21B-A975C16ECCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D44CF7-CC41-450E-B185-8BB46CFD7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>83</v>
       </c>
       <c r="G4" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>241</v>
       </c>
       <c r="K4" s="2">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,16 +636,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>51</v>
       </c>
       <c r="G5" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,27 +654,27 @@
         <v>184</v>
       </c>
       <c r="K5" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>42</v>
       </c>
       <c r="G6" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -683,12 +683,12 @@
         <v>101</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
@@ -697,13 +697,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>29</v>
       </c>
       <c r="G7" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>79</v>
       </c>
       <c r="K7" s="2">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -741,18 +741,18 @@
         <v>75</v>
       </c>
       <c r="K8" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D44CF7-CC41-450E-B185-8BB46CFD7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF8131-1DF1-497A-A9EC-A301A2F8A754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,89 +601,89 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
         <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="K4" s="2">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K6" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,19 +700,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,25 +723,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF8131-1DF1-497A-A9EC-A301A2F8A754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4879D-DF0A-43E8-952F-5F9D77A05320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>88</v>
       </c>
       <c r="G4" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>282</v>
       </c>
       <c r="K4" s="2">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -645,7 +645,7 @@
         <v>77</v>
       </c>
       <c r="G5" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>210</v>
       </c>
       <c r="K5" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -683,7 +683,7 @@
         <v>111</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -712,7 +712,7 @@
         <v>95</v>
       </c>
       <c r="K7" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>90</v>
       </c>
       <c r="K8" s="2">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4879D-DF0A-43E8-952F-5F9D77A05320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF4EB0-4D37-4B83-907D-620AAB06DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>14</v>
@@ -613,19 +613,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K4" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,28 +633,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K5" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -671,59 +671,59 @@
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="K6" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="K7" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -732,16 +732,16 @@
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="K8" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,28 +749,28 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="K9" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF4EB0-4D37-4B83-907D-620AAB06DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EC963-5C2C-4D6B-B34E-A69AC7056357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -625,7 +625,7 @@
         <v>288</v>
       </c>
       <c r="K4" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -645,7 +645,7 @@
         <v>85</v>
       </c>
       <c r="G5" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>212</v>
       </c>
       <c r="K5" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -674,7 +674,7 @@
         <v>55</v>
       </c>
       <c r="G6" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -683,7 +683,7 @@
         <v>142</v>
       </c>
       <c r="K6" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -703,7 +703,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>121</v>
       </c>
       <c r="K7" s="2">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -741,7 +741,7 @@
         <v>117</v>
       </c>
       <c r="K8" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>93</v>
       </c>
       <c r="K9" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EC963-5C2C-4D6B-B34E-A69AC7056357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E4352-60EA-43FF-8F01-290DD13C6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,28 +604,28 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="K4" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,28 +633,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="K5" s="2">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,28 +662,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="K6" s="2">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -703,16 +703,16 @@
         <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K7" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,28 +720,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K8" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K9" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E4352-60EA-43FF-8F01-290DD13C6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B1E1F-B5BD-4900-AC30-88AFF57BE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
         <v>315</v>
       </c>
       <c r="K4" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -645,7 +645,7 @@
         <v>92</v>
       </c>
       <c r="G5" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -654,7 +654,7 @@
         <v>248</v>
       </c>
       <c r="K5" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>171</v>
       </c>
       <c r="K6" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>126</v>
       </c>
       <c r="K7" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -741,7 +741,7 @@
         <v>125</v>
       </c>
       <c r="K8" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>116</v>
       </c>
       <c r="K9" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/public/GAMESKPI.xlsx
+++ b/public/GAMESKPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Project_React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B1E1F-B5BD-4900-AC30-88AFF57BE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E9CBE-A8D7-434B-AE3D-5C96788DA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E98F70-F2BD-4803-AD90-387C3126D71E}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,10 +604,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -616,16 +616,16 @@
         <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="K4" s="2">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,28 +633,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K5" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,25 +665,25 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="K6" s="2">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,19 +700,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K7" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,28 +720,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K8" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>116</v>
       </c>
       <c r="K9" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
